--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.1.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E619481-A092-444C-A6D9-8C897E1A0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DAEBD-77B6-4856-B5C7-2FE48FA0BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -590,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rv_OnsenName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rv_Point</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,6 +627,10 @@
   </si>
   <si>
     <t>hs_Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_Onsenname</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2232,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2774,7 +2774,7 @@
         <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
@@ -2829,7 +2829,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>43</v>
@@ -2857,7 +2857,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>37</v>
@@ -2885,7 +2885,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>78</v>
@@ -2911,7 +2911,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>43</v>
@@ -2937,7 +2937,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>78</v>
@@ -2989,12 +2989,14 @@
         <v>93</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>255</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -3013,12 +3015,14 @@
         <v>95</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -3026,7 +3030,7 @@
       <c r="J19" s="12"/>
       <c r="L19" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>rv_Iinecheck int ,</v>
+        <v>rv_Iinecheck int (255),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3044,7 +3048,7 @@
       <c r="J20" s="12"/>
       <c r="L20" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">rv_Book int  </v>
+        <v>rv_Book int  (1)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3216,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3342,7 +3346,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
@@ -3372,7 +3376,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>37</v>
@@ -3878,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
@@ -4313,6 +4317,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="852daf809ddd011eab6f7a9bc2e93e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da593f20671e75e3083145974722a37d" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -4456,22 +4475,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F7C35AC-4B0A-4942-A7DB-9E23531A7AF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D4BC52A-CFD2-4378-AEC9-410C1DA5F59D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC35AB1E-75EC-4B56-88E6-362151C24A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4487,28 +4515,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D4BC52A-CFD2-4378-AEC9-410C1DA5F59D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F7C35AC-4B0A-4942-A7DB-9E23531A7AF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>